--- a/medicine/Enfance/Fantômette_et_la_Grosse_Bête/Fantômette_et_la_Grosse_Bête.xlsx
+++ b/medicine/Enfance/Fantômette_et_la_Grosse_Bête/Fantômette_et_la_Grosse_Bête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Grosse_B%C3%AAte</t>
+          <t>Fantômette_et_la_Grosse_Bête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette et la Grosse Bête est le 26e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Grosse_B%C3%AAte</t>
+          <t>Fantômette_et_la_Grosse_Bête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette et la Grosse Bête a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Grosse_B%C3%AAte</t>
+          <t>Fantômette_et_la_Grosse_Bête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Grosse_B%C3%AAte</t>
+          <t>Fantômette_et_la_Grosse_Bête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1974 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 3)
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Grosse_B%C3%AAte</t>
+          <t>Fantômette_et_la_Grosse_Bête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fantômette avait rencontré une première fois le Masque d'argent dans Fantômette et le Masque d'argent (1973). Elle le retrouvera plus tard dans Fantômette brise la glace (1976), dans Fantômette dans l'espace (1977) et dans Fantômette s'envole (1985).</t>
         </is>
